--- a/df_rates_constant_CCDiF.xlsx
+++ b/df_rates_constant_CCDiF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/200_2/Di_200uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/200_2/Di_200uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -558,7 +558,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/200_2/Di_200uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/200_2/Di_200uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/200_2/Di_200uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/200_2/Di_200uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -638,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -648,17 +648,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/100_2/Di_100uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.001585686063973035</v>
+        <v>0.002739949831656012</v>
       </c>
       <c r="H5" t="n">
-        <v>437.1276233728269</v>
+        <v>252.9780554927207</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9965711045422125</v>
+        <v>0.9330830501469553</v>
       </c>
       <c r="J5" t="n">
         <v>155</v>
@@ -668,11 +668,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/100_2/Di_100uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/200_2/Di_200uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="6">
@@ -689,21 +689,21 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/100_2/Di_100uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/100_2/Di_100uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.001916929500441284</v>
+        <v>0.001581612835548561</v>
       </c>
       <c r="H6" t="n">
-        <v>361.5924218393949</v>
+        <v>438.2533860251182</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9996784414592838</v>
+        <v>0.996507339444876</v>
       </c>
       <c r="J6" t="n">
         <v>154</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/100_2/Di_100uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/100_2/Di_100uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -734,21 +734,21 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/100_2/Di_100uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/100_2/Di_100uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.001967894136550818</v>
+        <v>0.001928583512924271</v>
       </c>
       <c r="H7" t="n">
-        <v>352.2278803954584</v>
+        <v>359.4073971465933</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9894565349869707</v>
+        <v>0.9995915338679371</v>
       </c>
       <c r="J7" t="n">
         <v>220</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/100_2/Di_100uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/100_2/Di_100uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -773,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -783,17 +783,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/30_2/Di_30uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/100_2/Di_100uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.001050196835233746</v>
+        <v>7.249876255638453</v>
       </c>
       <c r="H8" t="n">
-        <v>660.0164438751799</v>
+        <v>0.09560813952112124</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9961622275019609</v>
+        <v>-0.01096562300942283</v>
       </c>
       <c r="J8" t="n">
         <v>80</v>
@@ -803,11 +803,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/30_2/Di_30uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/100_2/Di_100uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3e-05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="9">
@@ -824,31 +824,31 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/30_2/Di_30uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/30_2/Di_30uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.00110081656966164</v>
+        <v>0.001050196835233746</v>
       </c>
       <c r="H9" t="n">
-        <v>629.6663764545252</v>
+        <v>660.0164438751799</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9961864790932168</v>
+        <v>0.9961622275019609</v>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>-1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/30_2/Di_30uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/30_2/Di_30uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -869,31 +869,31 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/30_2/Di_30uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/30_2/Di_30uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.001119539539645957</v>
+        <v>0.00110081656966164</v>
       </c>
       <c r="H10" t="n">
-        <v>619.135953678908</v>
+        <v>629.6663764545252</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9978614997834896</v>
+        <v>0.9961864790932168</v>
       </c>
       <c r="J10" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
         <v>-1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/30_2/Di_30uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/30_2/Di_30uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -908,7 +908,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -918,17 +918,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/20_2/Di_20uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/30_2/Di_30uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.001044214100499154</v>
+        <v>0.001119539539645957</v>
       </c>
       <c r="H11" t="n">
-        <v>663.7979512329969</v>
+        <v>619.135953678908</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9981836810472905</v>
+        <v>0.9978614997834896</v>
       </c>
       <c r="J11" t="n">
         <v>90</v>
@@ -938,11 +938,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/20_2/Di_20uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/30_2/Di_30uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="12">
@@ -959,31 +959,31 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/20_2/Di_20uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.001076843389520917</v>
+        <v>0.001044214100499154</v>
       </c>
       <c r="H12" t="n">
-        <v>643.6842973687411</v>
+        <v>663.7979512329969</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9953791921847169</v>
+        <v>0.9981836810472905</v>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K12" t="n">
         <v>-1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/20_2/Di_20uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1004,31 +1004,31 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/20_2/Di_20uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.00113066330323458</v>
+        <v>0.004172094661573089</v>
       </c>
       <c r="H13" t="n">
-        <v>613.0447309795967</v>
+        <v>166.1388910812954</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9957365052380488</v>
+        <v>0.5414369245179737</v>
       </c>
       <c r="J13" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K13" t="n">
-        <v>-3500</v>
+        <v>-1</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/20_2/Di_20uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1043,41 +1043,41 @@
         <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/10_2/Di_10uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.0009666436477941762</v>
+        <v>0.001076843389520917</v>
       </c>
       <c r="H14" t="n">
-        <v>717.0658826979998</v>
+        <v>643.6842973687411</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9892655870955087</v>
+        <v>0.9953791921847169</v>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
         <v>-1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/10_2/Di_10uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1088,41 +1088,41 @@
         <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/10_2/Di_10uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.0007854078962605431</v>
+        <v>0.00113066330323458</v>
       </c>
       <c r="H15" t="n">
-        <v>882.5314640457954</v>
+        <v>613.0447309795967</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9988457699803999</v>
+        <v>0.9957365052380488</v>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>-1</v>
+        <v>-3500</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/10_2/Di_10uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/20_2/Di_20uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1139,31 +1139,31 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/10_2/Di_10uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/10_2/Di_10uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.0008131126403868992</v>
+        <v>0.0009666436477941762</v>
       </c>
       <c r="H16" t="n">
-        <v>852.4614501505334</v>
+        <v>717.0658826979998</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9978359266975325</v>
+        <v>0.9892655870955087</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
         <v>-1</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/10_2/Di_10uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/10_2/Di_10uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1178,41 +1178,41 @@
         <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/5_2/Di_5uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/10_2/Di_10uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.000917060067455725</v>
+        <v>0.0007854078962605431</v>
       </c>
       <c r="H17" t="n">
-        <v>755.8361825556317</v>
+        <v>882.5314640457954</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9958976154074085</v>
+        <v>0.9988457699803999</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
         <v>-1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/5_2/Di_5uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/10_2/Di_10uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5e-06</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1223,41 +1223,41 @@
         <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/5_2/Di_5uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/10_2/Di_10uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.0006697490460843987</v>
+        <v>0.0008131126403868992</v>
       </c>
       <c r="H18" t="n">
-        <v>1034.935674208632</v>
+        <v>852.4614501505334</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9805934049737628</v>
+        <v>0.9978359266975325</v>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>-1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/5_2/Di_5uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/10_2/Di_10uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5e-06</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1274,31 +1274,31 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/5_2/Di_5uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/5_2/Di_5uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.001142989160301878</v>
+        <v>0.000917060067455725</v>
       </c>
       <c r="H19" t="n">
-        <v>606.4337306373723</v>
+        <v>755.8361825556317</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9835905453237086</v>
+        <v>0.9958976154074085</v>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="K19" t="n">
         <v>-1</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/5_2/Di_5uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/5_2/Di_5uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1313,41 +1313,41 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/50_2/Di_50uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/5_2/Di_5uM_Di_4GF_2uM_25degC_rep3.txt</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.001407548925042905</v>
+        <v>0.0006697490460843987</v>
       </c>
       <c r="H20" t="n">
-        <v>492.4497956892098</v>
+        <v>1034.935674208632</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9982516697856231</v>
+        <v>0.9805934049737628</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
         <v>-1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/50_2/Di_50uM_Di_4GF_2uM_25degC_rep1.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/5_2/Di_5uM_Di_4GF_2uM_25degC_rep3.png</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5e-05</v>
+        <v>5e-06</v>
       </c>
     </row>
     <row r="21">
@@ -1358,41 +1358,41 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/50_2/Di_50uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/5_2/Di_5uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.001537314006801469</v>
+        <v>0.001142989160301878</v>
       </c>
       <c r="H21" t="n">
-        <v>450.8819782382034</v>
+        <v>606.4337306373723</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9987656004814</v>
+        <v>0.9835905453237086</v>
       </c>
       <c r="J21" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
         <v>-1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/50_2/Di_50uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/5_2/Di_5uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5e-05</v>
+        <v>5e-06</v>
       </c>
     </row>
     <row r="22">
@@ -1409,31 +1409,31 @@
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/50_2/Di_50uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/50_2/Di_50uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.00140309617471228</v>
+        <v>0.001407548925042905</v>
       </c>
       <c r="H22" t="n">
-        <v>494.0125937568626</v>
+        <v>492.4497956892098</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9885472937263798</v>
+        <v>0.9982516697856231</v>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
         <v>-1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/50_2/Di_50uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/50_2/Di_50uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1448,7 +1448,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -1458,31 +1458,31 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/2_2/Di_2uM_Di_4GF_2uM_25degC_rep2.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/50_2/Di_50uM_Di_4GF_2uM_25degC_rep2.txt</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.0005744900944966849</v>
+        <v>0.00140309617471228</v>
       </c>
       <c r="H23" t="n">
-        <v>1206.543310667901</v>
+        <v>494.0125937568626</v>
       </c>
       <c r="I23" t="n">
-        <v>0.99505937168322</v>
+        <v>0.9885472937263798</v>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>-250</v>
+        <v>-1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/2_2/Di_2uM_Di_4GF_2uM_25degC_rep2.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/50_2/Di_50uM_Di_4GF_2uM_25degC_rep2.png</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2e-06</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="24">
@@ -1493,41 +1493,41 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/2_2/Di_2uM_Di_4GF_2uM_25degC_rep3.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.000895595004620707</v>
+        <v>0.002231587015090794</v>
       </c>
       <c r="H24" t="n">
-        <v>773.9515930568413</v>
+        <v>310.6072834590964</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9965869776591872</v>
+        <v>0.9584999714782046</v>
       </c>
       <c r="J24" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K24" t="n">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/2_2/Di_2uM_Di_4GF_2uM_25degC_rep3.png</t>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep1.png</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2e-06</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="25">
@@ -1538,7 +1538,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -1548,31 +1548,256 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./CCDi_data/Ratios/2_2/Di_2uM_Di_4GF_2uM_25degC_rep1.txt</t>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep1.txt</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.001176317056127134</v>
+        <v>0.001993346040534828</v>
       </c>
       <c r="H25" t="n">
-        <v>589.2520022127701</v>
+        <v>347.7304825478116</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9522800413708329</v>
+        <v>0.9750895316186173</v>
       </c>
       <c r="J25" t="n">
+        <v>70</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-250</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep1.png</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>1e-06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep2.txt</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0002031704653227413</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3411.653261013425</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8536026996300995</v>
+      </c>
+      <c r="J26" t="n">
         <v>90</v>
       </c>
-      <c r="K25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>./CCDi_data/Ratios/2_2/Di_2uM_Di_4GF_2uM_25degC_rep1.png</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="K26" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep2.png</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1e-06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep3.txt</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.000861464256231955</v>
+      </c>
+      <c r="H27" t="n">
+        <v>804.6151370130798</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9469165296783476</v>
+      </c>
+      <c r="J27" t="n">
+        <v>90</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep3.png</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1e-06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/2_2/Di_2uM_Di_4GF_2uM_25degC_rep2.txt</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0005752399837867685</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1204.970447285325</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9954384286085337</v>
+      </c>
+      <c r="J28" t="n">
+        <v>90</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/2_2/Di_2uM_Di_4GF_2uM_25degC_rep2.png</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>2e-06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep3.txt</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0007908637489450948</v>
+      </c>
+      <c r="H29" t="n">
+        <v>876.4432324588272</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9588521143959208</v>
+      </c>
+      <c r="J29" t="n">
+        <v>90</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep3.png</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1e-06</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep2.txt</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0002031704653227413</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3411.653261013425</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8536026996300995</v>
+      </c>
+      <c r="J30" t="n">
+        <v>90</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>./CCDi_data/Ratios_const_labelled/1_2/Di_1uM_Di_4GF_2uM_25degC_rep2.png</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1e-06</v>
       </c>
     </row>
   </sheetData>
